--- a/src/Presentation/CTM.Win/ReportTemplate/TradeTypeProfit.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/TradeTypeProfit.xlsx
@@ -347,13 +347,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
     <numFmt numFmtId="180" formatCode="yy\/mm\/dd"/>
+    <numFmt numFmtId="183" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -576,9 +577,6 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,14 +616,17 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1093,8 +1094,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-1548910672"/>
-        <c:axId val="-1548910128"/>
+        <c:axId val="2017525088"/>
+        <c:axId val="2017522368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1174,9 +1175,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1338,9 +1337,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1383,8 +1380,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1548910672"/>
-        <c:axId val="-1548910128"/>
+        <c:axId val="2017525088"/>
+        <c:axId val="2017522368"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1458,9 +1455,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1594,9 +1589,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2028,9 +2021,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2073,11 +2064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1290990576"/>
-        <c:axId val="-1290992208"/>
+        <c:axId val="2017533248"/>
+        <c:axId val="2017527808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1548910672"/>
+        <c:axId val="2017525088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1548910128"/>
+        <c:crossAx val="2017522368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2105,7 +2096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1548910128"/>
+        <c:axId val="2017522368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,12 +2168,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1548910672"/>
+        <c:crossAx val="2017525088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1290992208"/>
+        <c:axId val="2017527808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,12 +2193,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1290990576"/>
+        <c:crossAx val="2017533248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1290990576"/>
+        <c:axId val="2017533248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1290992208"/>
+        <c:crossAx val="2017527808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3346,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3573,77 +3564,77 @@
       <c r="X32" s="9"/>
     </row>
     <row r="33" spans="1:24" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="38" t="s">
+      <c r="A33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="K33" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="43" t="s">
+      <c r="L33" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="50" t="s">
+      <c r="M33" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="44" t="s">
+      <c r="N33" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="37" t="s">
+      <c r="O33" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="46" t="s">
+      <c r="P33" s="44"/>
+      <c r="Q33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="R33" s="37" t="str">
+      <c r="R33" s="36" t="str">
         <f>"净资产"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
         <v>净资产(单位:10万元)</v>
       </c>
-      <c r="S33" s="47" t="s">
+      <c r="S33" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="T33" s="50" t="s">
+      <c r="T33" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="U33" s="37" t="str">
+      <c r="U33" s="36" t="str">
         <f>"持仓市值"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
         <v>持仓市值(单位:10万元)</v>
       </c>
-      <c r="V33" s="37" t="s">
+      <c r="V33" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="W33" s="42" t="str">
+      <c r="W33" s="41" t="str">
         <f>"资金可用额度"&amp;"(单位:"&amp;W32&amp;"万元)"</f>
         <v>资金可用额度(单位:10万元)</v>
       </c>
-      <c r="X33" s="37" t="s">
+      <c r="X33" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3691,15 +3682,15 @@
         <f>I34/$W$32</f>
         <v>0</v>
       </c>
-      <c r="V34" s="34">
+      <c r="V34" s="50">
         <f>J34/$W$32</f>
         <v>0</v>
       </c>
-      <c r="W34" s="35">
+      <c r="W34" s="34">
         <f>K34/$W$32</f>
         <v>0</v>
       </c>
-      <c r="X34" s="36">
+      <c r="X34" s="35">
         <v>0</v>
       </c>
     </row>
@@ -3747,15 +3738,15 @@
         <f t="shared" ref="U35:W58" si="2">I35/$W$32</f>
         <v>0</v>
       </c>
-      <c r="V35" s="34">
+      <c r="V35" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W35" s="35">
+      <c r="W35" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X35" s="36">
+      <c r="X35" s="35">
         <v>0</v>
       </c>
     </row>
@@ -3803,15 +3794,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V36" s="34">
+      <c r="V36" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W36" s="35">
+      <c r="W36" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X36" s="36">
+      <c r="X36" s="35">
         <v>0</v>
       </c>
     </row>
@@ -3859,15 +3850,15 @@
         <f t="shared" ref="U37:U41" si="6">I37/$W$32</f>
         <v>0</v>
       </c>
-      <c r="V37" s="34">
+      <c r="V37" s="50">
         <f t="shared" ref="V37:V41" si="7">J37/$W$32</f>
         <v>0</v>
       </c>
-      <c r="W37" s="35">
+      <c r="W37" s="34">
         <f t="shared" ref="W37:W41" si="8">K37/$W$32</f>
         <v>0</v>
       </c>
-      <c r="X37" s="36">
+      <c r="X37" s="35">
         <v>0</v>
       </c>
     </row>
@@ -3915,15 +3906,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V38" s="34">
+      <c r="V38" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W38" s="35">
+      <c r="W38" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X38" s="36">
+      <c r="X38" s="35">
         <v>0</v>
       </c>
     </row>
@@ -3971,15 +3962,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V39" s="34">
+      <c r="V39" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W39" s="35">
+      <c r="W39" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X39" s="36">
+      <c r="X39" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4027,15 +4018,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V40" s="34">
+      <c r="V40" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W40" s="35">
+      <c r="W40" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X40" s="36">
+      <c r="X40" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4083,15 +4074,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V41" s="34">
+      <c r="V41" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W41" s="35">
+      <c r="W41" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X41" s="36">
+      <c r="X41" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4139,15 +4130,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V42" s="34">
+      <c r="V42" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W42" s="35">
+      <c r="W42" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X42" s="36">
+      <c r="X42" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4195,15 +4186,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V43" s="34">
+      <c r="V43" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W43" s="35">
+      <c r="W43" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X43" s="36">
+      <c r="X43" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4251,15 +4242,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V44" s="34">
+      <c r="V44" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W44" s="35">
+      <c r="W44" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X44" s="36">
+      <c r="X44" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4307,15 +4298,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V45" s="34">
+      <c r="V45" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W45" s="35">
+      <c r="W45" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X45" s="36">
+      <c r="X45" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4363,15 +4354,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V46" s="34">
+      <c r="V46" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W46" s="35">
+      <c r="W46" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X46" s="36">
+      <c r="X46" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4419,15 +4410,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V47" s="34">
+      <c r="V47" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W47" s="35">
+      <c r="W47" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X47" s="36">
+      <c r="X47" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4475,15 +4466,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V48" s="34">
+      <c r="V48" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W48" s="35">
+      <c r="W48" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X48" s="36">
+      <c r="X48" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4531,15 +4522,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V49" s="34">
+      <c r="V49" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W49" s="35">
+      <c r="W49" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X49" s="36">
+      <c r="X49" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4587,15 +4578,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V50" s="34">
+      <c r="V50" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W50" s="35">
+      <c r="W50" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X50" s="36">
+      <c r="X50" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4643,15 +4634,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V51" s="34">
+      <c r="V51" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W51" s="35">
+      <c r="W51" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X51" s="36">
+      <c r="X51" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4699,15 +4690,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V52" s="34">
+      <c r="V52" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W52" s="35">
+      <c r="W52" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X52" s="36">
+      <c r="X52" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4755,15 +4746,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V53" s="34">
+      <c r="V53" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W53" s="35">
+      <c r="W53" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X53" s="36">
+      <c r="X53" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4811,15 +4802,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V54" s="34">
+      <c r="V54" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W54" s="35">
+      <c r="W54" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X54" s="36">
+      <c r="X54" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4867,15 +4858,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V55" s="34">
+      <c r="V55" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W55" s="35">
+      <c r="W55" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X55" s="36">
+      <c r="X55" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4923,15 +4914,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V56" s="34">
+      <c r="V56" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W56" s="35">
+      <c r="W56" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X56" s="36">
+      <c r="X56" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4979,15 +4970,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V57" s="34">
+      <c r="V57" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W57" s="35">
+      <c r="W57" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X57" s="36">
+      <c r="X57" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5035,15 +5026,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V58" s="34">
+      <c r="V58" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W58" s="35">
+      <c r="W58" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X58" s="36">
+      <c r="X58" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5067,52 +5058,52 @@
       <c r="O60" s="48"/>
     </row>
     <row r="61" spans="1:25" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="38" t="s">
+      <c r="A61" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="37" t="s">
+      <c r="F61" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="41" t="s">
+      <c r="G61" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H61" s="50" t="s">
+      <c r="H61" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="37" t="s">
+      <c r="I61" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J61" s="37" t="s">
+      <c r="J61" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K61" s="42" t="s">
+      <c r="K61" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L61" s="43" t="s">
+      <c r="L61" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M61" s="50" t="s">
+      <c r="M61" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="44" t="s">
+      <c r="N61" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O61" s="37" t="s">
+      <c r="O61" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P61" s="45"/>
+      <c r="P61" s="44"/>
     </row>
     <row r="62" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
@@ -5983,50 +5974,50 @@
       <c r="N88" s="48"/>
       <c r="O88" s="48"/>
     </row>
-    <row r="89" spans="1:25" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="38" t="s">
+    <row r="89" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="39" t="s">
+      <c r="C89" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="D89" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="41" t="s">
+      <c r="E89" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="37" t="s">
+      <c r="F89" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="41" t="s">
+      <c r="G89" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="50" t="s">
+      <c r="H89" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I89" s="37" t="s">
+      <c r="I89" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J89" s="37" t="s">
+      <c r="J89" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K89" s="42" t="s">
+      <c r="K89" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="43" t="s">
+      <c r="L89" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M89" s="50" t="s">
+      <c r="M89" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="44" t="s">
+      <c r="N89" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O89" s="37" t="s">
+      <c r="O89" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6674,50 +6665,50 @@
       <c r="N116" s="48"/>
       <c r="O116" s="48"/>
     </row>
-    <row r="117" spans="1:15" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="38" t="s">
+    <row r="117" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="39" t="s">
+      <c r="C117" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="40" t="s">
+      <c r="D117" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="41" t="s">
+      <c r="E117" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F117" s="37" t="s">
+      <c r="F117" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G117" s="41" t="s">
+      <c r="G117" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H117" s="50" t="s">
+      <c r="H117" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I117" s="37" t="s">
+      <c r="I117" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J117" s="37" t="s">
+      <c r="J117" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K117" s="42" t="s">
+      <c r="K117" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L117" s="43" t="s">
+      <c r="L117" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M117" s="50" t="s">
+      <c r="M117" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N117" s="44" t="s">
+      <c r="N117" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O117" s="37" t="s">
+      <c r="O117" s="36" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/Presentation/CTM.Win/ReportTemplate/TradeTypeProfit.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/TradeTypeProfit.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693" activeTab="1"/>
+    <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="39" r:id="rId1"/>
     <sheet name="Subject" sheetId="94" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$O$310</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$O$74</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -354,7 +354,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
     <numFmt numFmtId="180" formatCode="yy\/mm\/dd"/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -619,14 +619,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -828,9 +828,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1094,8 +1092,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="2017525088"/>
-        <c:axId val="2017522368"/>
+        <c:axId val="-551228560"/>
+        <c:axId val="-551235632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1380,8 +1378,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2017525088"/>
-        <c:axId val="2017522368"/>
+        <c:axId val="-551228560"/>
+        <c:axId val="-551235632"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1789,9 +1787,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2064,11 +2060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2017533248"/>
-        <c:axId val="2017527808"/>
+        <c:axId val="-551235088"/>
+        <c:axId val="-551227472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2017525088"/>
+        <c:axId val="-551228560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,7 +2084,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2017522368"/>
+        <c:crossAx val="-551235632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2096,7 +2092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2017522368"/>
+        <c:axId val="-551235632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,12 +2164,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2017525088"/>
+        <c:crossAx val="-551228560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2017527808"/>
+        <c:axId val="-551227472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,12 +2189,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2017533248"/>
+        <c:crossAx val="-551235088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2017533248"/>
+        <c:axId val="-551235088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2017527808"/>
+        <c:crossAx val="-551227472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2670,666 +2666,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B234:X265"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData>
-    <row r="234" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="2"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
-      <c r="G234" s="4"/>
-      <c r="K234" s="6"/>
-      <c r="L234" s="7"/>
-      <c r="M234" s="8"/>
-      <c r="P234" s="9"/>
-      <c r="Q234" s="9"/>
-      <c r="R234" s="9"/>
-      <c r="S234" s="9"/>
-      <c r="T234" s="9"/>
-      <c r="U234" s="9"/>
-      <c r="V234" s="9"/>
-      <c r="W234" s="9"/>
-      <c r="X234" s="1"/>
-    </row>
-    <row r="235" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="2"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="10"/>
-      <c r="G235" s="4"/>
-      <c r="K235" s="11"/>
-      <c r="L235" s="7"/>
-      <c r="M235" s="8"/>
-      <c r="P235" s="9"/>
-      <c r="Q235" s="9"/>
-      <c r="R235" s="9"/>
-      <c r="S235" s="9"/>
-      <c r="T235" s="9"/>
-      <c r="U235" s="9"/>
-      <c r="V235" s="9"/>
-      <c r="W235" s="9"/>
-      <c r="X235" s="1"/>
-    </row>
-    <row r="236" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="2"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="10"/>
-      <c r="G236" s="4"/>
-      <c r="K236" s="11"/>
-      <c r="L236" s="7"/>
-      <c r="M236" s="8"/>
-      <c r="P236" s="9"/>
-      <c r="Q236" s="9"/>
-      <c r="R236" s="9"/>
-      <c r="S236" s="9"/>
-      <c r="T236" s="9"/>
-      <c r="U236" s="9"/>
-      <c r="V236" s="9"/>
-      <c r="W236" s="9"/>
-      <c r="X236" s="1"/>
-    </row>
-    <row r="237" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="2"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="10"/>
-      <c r="G237" s="4"/>
-      <c r="K237" s="11"/>
-      <c r="L237" s="7"/>
-      <c r="M237" s="8"/>
-      <c r="P237" s="9"/>
-      <c r="Q237" s="9"/>
-      <c r="R237" s="9"/>
-      <c r="S237" s="9"/>
-      <c r="T237" s="9"/>
-      <c r="U237" s="9"/>
-      <c r="V237" s="9"/>
-      <c r="W237" s="9"/>
-      <c r="X237" s="1"/>
-    </row>
-    <row r="238" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="2"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="10"/>
-      <c r="G238" s="4"/>
-      <c r="K238" s="11"/>
-      <c r="L238" s="7"/>
-      <c r="M238" s="8"/>
-      <c r="P238" s="9"/>
-      <c r="Q238" s="9"/>
-      <c r="R238" s="9"/>
-      <c r="S238" s="9"/>
-      <c r="T238" s="9"/>
-      <c r="U238" s="9"/>
-      <c r="V238" s="9"/>
-      <c r="W238" s="9"/>
-      <c r="X238" s="1"/>
-    </row>
-    <row r="239" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="2"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="10"/>
-      <c r="G239" s="4"/>
-      <c r="K239" s="11"/>
-      <c r="L239" s="7"/>
-      <c r="M239" s="8"/>
-      <c r="P239" s="9"/>
-      <c r="Q239" s="9"/>
-      <c r="R239" s="9"/>
-      <c r="S239" s="9"/>
-      <c r="T239" s="9"/>
-      <c r="U239" s="9"/>
-      <c r="V239" s="9"/>
-      <c r="W239" s="9"/>
-      <c r="X239" s="1"/>
-    </row>
-    <row r="240" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="2"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="10"/>
-      <c r="G240" s="4"/>
-      <c r="K240" s="11"/>
-      <c r="L240" s="7"/>
-      <c r="M240" s="8"/>
-      <c r="P240" s="9"/>
-      <c r="Q240" s="9"/>
-      <c r="R240" s="9"/>
-      <c r="S240" s="9"/>
-      <c r="T240" s="9"/>
-      <c r="U240" s="9"/>
-      <c r="V240" s="9"/>
-      <c r="W240" s="9"/>
-      <c r="X240" s="1"/>
-    </row>
-    <row r="241" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="2"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="10"/>
-      <c r="G241" s="4"/>
-      <c r="K241" s="11"/>
-      <c r="L241" s="7"/>
-      <c r="M241" s="8"/>
-      <c r="P241" s="9"/>
-      <c r="Q241" s="9"/>
-      <c r="R241" s="9"/>
-      <c r="S241" s="9"/>
-      <c r="T241" s="9"/>
-      <c r="U241" s="9"/>
-      <c r="V241" s="9"/>
-      <c r="W241" s="9"/>
-      <c r="X241" s="1"/>
-    </row>
-    <row r="242" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="2"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="10"/>
-      <c r="G242" s="4"/>
-      <c r="K242" s="11"/>
-      <c r="L242" s="7"/>
-      <c r="M242" s="8"/>
-      <c r="P242" s="9"/>
-      <c r="Q242" s="9"/>
-      <c r="R242" s="9"/>
-      <c r="S242" s="9"/>
-      <c r="T242" s="9"/>
-      <c r="U242" s="9"/>
-      <c r="V242" s="9"/>
-      <c r="W242" s="9"/>
-      <c r="X242" s="1"/>
-    </row>
-    <row r="243" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="2"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="10"/>
-      <c r="G243" s="4"/>
-      <c r="K243" s="11"/>
-      <c r="L243" s="7"/>
-      <c r="M243" s="8"/>
-      <c r="P243" s="9"/>
-      <c r="Q243" s="9"/>
-      <c r="R243" s="9"/>
-      <c r="S243" s="9"/>
-      <c r="T243" s="9"/>
-      <c r="U243" s="9"/>
-      <c r="V243" s="9"/>
-      <c r="W243" s="9"/>
-      <c r="X243" s="1"/>
-    </row>
-    <row r="244" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="2"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="10"/>
-      <c r="G244" s="4"/>
-      <c r="K244" s="11"/>
-      <c r="L244" s="7"/>
-      <c r="M244" s="8"/>
-      <c r="P244" s="9"/>
-      <c r="Q244" s="9"/>
-      <c r="R244" s="9"/>
-      <c r="S244" s="9"/>
-      <c r="T244" s="9"/>
-      <c r="U244" s="9"/>
-      <c r="V244" s="9"/>
-      <c r="W244" s="9"/>
-      <c r="X244" s="1"/>
-    </row>
-    <row r="245" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="2"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="10"/>
-      <c r="G245" s="4"/>
-      <c r="K245" s="11"/>
-      <c r="L245" s="7"/>
-      <c r="M245" s="8"/>
-      <c r="P245" s="9"/>
-      <c r="Q245" s="9"/>
-      <c r="R245" s="9"/>
-      <c r="S245" s="9"/>
-      <c r="T245" s="9"/>
-      <c r="U245" s="9"/>
-      <c r="V245" s="9"/>
-      <c r="W245" s="9"/>
-      <c r="X245" s="1"/>
-    </row>
-    <row r="246" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="2"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="10"/>
-      <c r="G246" s="4"/>
-      <c r="K246" s="11"/>
-      <c r="L246" s="7"/>
-      <c r="M246" s="8"/>
-      <c r="P246" s="9"/>
-      <c r="Q246" s="9"/>
-      <c r="R246" s="9"/>
-      <c r="S246" s="9"/>
-      <c r="T246" s="9"/>
-      <c r="U246" s="9"/>
-      <c r="V246" s="9"/>
-      <c r="W246" s="9"/>
-      <c r="X246" s="1"/>
-    </row>
-    <row r="247" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="2"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="10"/>
-      <c r="G247" s="4"/>
-      <c r="K247" s="11"/>
-      <c r="L247" s="7"/>
-      <c r="M247" s="8"/>
-      <c r="P247" s="9"/>
-      <c r="Q247" s="9"/>
-      <c r="R247" s="9"/>
-      <c r="S247" s="9"/>
-      <c r="T247" s="9"/>
-      <c r="U247" s="9"/>
-      <c r="V247" s="9"/>
-      <c r="W247" s="9"/>
-      <c r="X247" s="1"/>
-    </row>
-    <row r="248" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="2"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="10"/>
-      <c r="G248" s="4"/>
-      <c r="K248" s="11"/>
-      <c r="L248" s="7"/>
-      <c r="M248" s="8"/>
-      <c r="P248" s="9"/>
-      <c r="Q248" s="9"/>
-      <c r="R248" s="9"/>
-      <c r="S248" s="9"/>
-      <c r="T248" s="9"/>
-      <c r="U248" s="9"/>
-      <c r="V248" s="9"/>
-      <c r="W248" s="9"/>
-      <c r="X248" s="1"/>
-    </row>
-    <row r="249" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="2"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="10"/>
-      <c r="G249" s="4"/>
-      <c r="K249" s="11"/>
-      <c r="L249" s="7"/>
-      <c r="M249" s="8"/>
-      <c r="P249" s="9"/>
-      <c r="Q249" s="9"/>
-      <c r="R249" s="9"/>
-      <c r="S249" s="9"/>
-      <c r="T249" s="9"/>
-      <c r="U249" s="9"/>
-      <c r="V249" s="9"/>
-      <c r="W249" s="9"/>
-      <c r="X249" s="1"/>
-    </row>
-    <row r="250" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="2"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="10"/>
-      <c r="G250" s="4"/>
-      <c r="K250" s="11"/>
-      <c r="L250" s="7"/>
-      <c r="M250" s="8"/>
-      <c r="P250" s="9"/>
-      <c r="Q250" s="9"/>
-      <c r="R250" s="9"/>
-      <c r="S250" s="9"/>
-      <c r="T250" s="9"/>
-      <c r="U250" s="9"/>
-      <c r="V250" s="9"/>
-      <c r="W250" s="9"/>
-      <c r="X250" s="1"/>
-    </row>
-    <row r="251" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="2"/>
-      <c r="C251" s="3"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="10"/>
-      <c r="G251" s="4"/>
-      <c r="K251" s="11"/>
-      <c r="L251" s="7"/>
-      <c r="M251" s="8"/>
-      <c r="P251" s="9"/>
-      <c r="Q251" s="9"/>
-      <c r="R251" s="9"/>
-      <c r="S251" s="9"/>
-      <c r="T251" s="9"/>
-      <c r="U251" s="9"/>
-      <c r="V251" s="9"/>
-      <c r="W251" s="9"/>
-      <c r="X251" s="1"/>
-    </row>
-    <row r="252" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="2"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="10"/>
-      <c r="G252" s="4"/>
-      <c r="K252" s="11"/>
-      <c r="L252" s="7"/>
-      <c r="M252" s="8"/>
-      <c r="P252" s="9"/>
-      <c r="Q252" s="9"/>
-      <c r="R252" s="9"/>
-      <c r="S252" s="9"/>
-      <c r="T252" s="9"/>
-      <c r="U252" s="9"/>
-      <c r="V252" s="9"/>
-      <c r="W252" s="9"/>
-      <c r="X252" s="1"/>
-    </row>
-    <row r="253" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="2"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="10"/>
-      <c r="G253" s="4"/>
-      <c r="K253" s="11"/>
-      <c r="L253" s="7"/>
-      <c r="M253" s="8"/>
-      <c r="P253" s="9"/>
-      <c r="Q253" s="9"/>
-      <c r="R253" s="9"/>
-      <c r="S253" s="9"/>
-      <c r="T253" s="9"/>
-      <c r="U253" s="9"/>
-      <c r="V253" s="9"/>
-      <c r="W253" s="9"/>
-      <c r="X253" s="1"/>
-    </row>
-    <row r="254" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="2"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="10"/>
-      <c r="G254" s="4"/>
-      <c r="K254" s="11"/>
-      <c r="L254" s="7"/>
-      <c r="M254" s="8"/>
-      <c r="P254" s="9"/>
-      <c r="Q254" s="9"/>
-      <c r="R254" s="9"/>
-      <c r="S254" s="9"/>
-      <c r="T254" s="9"/>
-      <c r="U254" s="9"/>
-      <c r="V254" s="9"/>
-      <c r="W254" s="9"/>
-      <c r="X254" s="1"/>
-    </row>
-    <row r="255" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="2"/>
-      <c r="C255" s="3"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="10"/>
-      <c r="G255" s="4"/>
-      <c r="K255" s="11"/>
-      <c r="L255" s="7"/>
-      <c r="M255" s="8"/>
-      <c r="P255" s="9"/>
-      <c r="Q255" s="9"/>
-      <c r="R255" s="9"/>
-      <c r="S255" s="9"/>
-      <c r="T255" s="9"/>
-      <c r="U255" s="9"/>
-      <c r="V255" s="9"/>
-      <c r="W255" s="9"/>
-      <c r="X255" s="1"/>
-    </row>
-    <row r="256" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="2"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="10"/>
-      <c r="G256" s="4"/>
-      <c r="K256" s="11"/>
-      <c r="L256" s="7"/>
-      <c r="M256" s="8"/>
-      <c r="P256" s="9"/>
-      <c r="Q256" s="9"/>
-      <c r="R256" s="9"/>
-      <c r="S256" s="9"/>
-      <c r="T256" s="9"/>
-      <c r="U256" s="9"/>
-      <c r="V256" s="9"/>
-      <c r="W256" s="9"/>
-      <c r="X256" s="1"/>
-    </row>
-    <row r="257" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="2"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="10"/>
-      <c r="G257" s="4"/>
-      <c r="K257" s="11"/>
-      <c r="L257" s="7"/>
-      <c r="M257" s="8"/>
-      <c r="P257" s="9"/>
-      <c r="Q257" s="9"/>
-      <c r="R257" s="9"/>
-      <c r="S257" s="9"/>
-      <c r="T257" s="9"/>
-      <c r="U257" s="9"/>
-      <c r="V257" s="9"/>
-      <c r="W257" s="9"/>
-      <c r="X257" s="1"/>
-    </row>
-    <row r="258" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="2"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="10"/>
-      <c r="G258" s="4"/>
-      <c r="K258" s="11"/>
-      <c r="L258" s="7"/>
-      <c r="M258" s="8"/>
-      <c r="P258" s="9"/>
-      <c r="Q258" s="9"/>
-      <c r="R258" s="9"/>
-      <c r="S258" s="9"/>
-      <c r="T258" s="9"/>
-      <c r="U258" s="9"/>
-      <c r="V258" s="9"/>
-      <c r="W258" s="9"/>
-      <c r="X258" s="1"/>
-    </row>
-    <row r="259" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="2"/>
-      <c r="C259" s="3"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="10"/>
-      <c r="G259" s="4"/>
-      <c r="K259" s="11"/>
-      <c r="L259" s="7"/>
-      <c r="M259" s="8"/>
-      <c r="P259" s="9"/>
-      <c r="Q259" s="9"/>
-      <c r="R259" s="9"/>
-      <c r="S259" s="9"/>
-      <c r="T259" s="9"/>
-      <c r="U259" s="9"/>
-      <c r="V259" s="9"/>
-      <c r="W259" s="9"/>
-      <c r="X259" s="1"/>
-    </row>
-    <row r="260" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="2"/>
-      <c r="C260" s="3"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="10"/>
-      <c r="G260" s="4"/>
-      <c r="K260" s="11"/>
-      <c r="L260" s="7"/>
-      <c r="M260" s="8"/>
-      <c r="P260" s="9"/>
-      <c r="Q260" s="9"/>
-      <c r="R260" s="9"/>
-      <c r="S260" s="9"/>
-      <c r="T260" s="9"/>
-      <c r="U260" s="9"/>
-      <c r="V260" s="9"/>
-      <c r="W260" s="9"/>
-      <c r="X260" s="1"/>
-    </row>
-    <row r="261" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="2"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="10"/>
-      <c r="G261" s="4"/>
-      <c r="K261" s="11"/>
-      <c r="L261" s="7"/>
-      <c r="M261" s="8"/>
-      <c r="P261" s="9"/>
-      <c r="Q261" s="9"/>
-      <c r="R261" s="9"/>
-      <c r="S261" s="9"/>
-      <c r="T261" s="9"/>
-      <c r="U261" s="9"/>
-      <c r="V261" s="9"/>
-      <c r="W261" s="9"/>
-      <c r="X261" s="1"/>
-    </row>
-    <row r="262" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="2"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="10"/>
-      <c r="G262" s="4"/>
-      <c r="K262" s="11"/>
-      <c r="L262" s="7"/>
-      <c r="M262" s="8"/>
-      <c r="P262" s="9"/>
-      <c r="Q262" s="9"/>
-      <c r="R262" s="9"/>
-      <c r="S262" s="9"/>
-      <c r="T262" s="9"/>
-      <c r="U262" s="9"/>
-      <c r="V262" s="9"/>
-      <c r="W262" s="9"/>
-      <c r="X262" s="1"/>
-    </row>
-    <row r="263" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="2"/>
-      <c r="C263" s="3"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="10"/>
-      <c r="G263" s="4"/>
-      <c r="K263" s="11"/>
-      <c r="L263" s="7"/>
-      <c r="M263" s="8"/>
-      <c r="P263" s="9"/>
-      <c r="Q263" s="9"/>
-      <c r="R263" s="9"/>
-      <c r="S263" s="9"/>
-      <c r="T263" s="9"/>
-      <c r="U263" s="9"/>
-      <c r="V263" s="9"/>
-      <c r="W263" s="9"/>
-      <c r="X263" s="1"/>
-    </row>
-    <row r="264" spans="2:24" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="12"/>
-      <c r="C264" s="13">
-        <v>2</v>
-      </c>
-      <c r="D264" s="14">
-        <v>3</v>
-      </c>
-      <c r="E264" s="14">
-        <v>4</v>
-      </c>
-      <c r="F264" s="15">
-        <v>5</v>
-      </c>
-      <c r="G264" s="14">
-        <v>6</v>
-      </c>
-      <c r="H264" s="15">
-        <v>7</v>
-      </c>
-      <c r="I264" s="15">
-        <v>8</v>
-      </c>
-      <c r="J264" s="15">
-        <v>9</v>
-      </c>
-      <c r="K264" s="15">
-        <v>10</v>
-      </c>
-      <c r="L264" s="15">
-        <v>11</v>
-      </c>
-      <c r="M264" s="15">
-        <v>16</v>
-      </c>
-      <c r="N264" s="15">
-        <v>17</v>
-      </c>
-      <c r="P264" s="15"/>
-      <c r="Q264" s="15"/>
-      <c r="R264" s="15"/>
-      <c r="S264" s="15"/>
-      <c r="T264" s="15"/>
-      <c r="U264" s="15"/>
-      <c r="V264" s="15"/>
-      <c r="W264" s="15"/>
-    </row>
-    <row r="265" spans="2:24" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="12"/>
-      <c r="C265" s="13"/>
-      <c r="D265" s="14"/>
-      <c r="E265" s="14"/>
-      <c r="F265" s="15"/>
-      <c r="G265" s="14"/>
-      <c r="H265" s="15"/>
-      <c r="I265" s="15"/>
-      <c r="J265" s="15"/>
-      <c r="K265" s="15"/>
-      <c r="L265" s="15"/>
-      <c r="M265" s="17"/>
-      <c r="N265" s="15"/>
-      <c r="P265" s="18"/>
-      <c r="Q265" s="18"/>
-      <c r="R265" s="18"/>
-      <c r="S265" s="18"/>
-      <c r="T265" s="18"/>
-      <c r="U265" s="9"/>
-      <c r="V265" s="19">
-        <v>1</v>
-      </c>
-      <c r="W265" s="9"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.56999999999999995" top="0.64" bottom="0.59" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="14" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 
@@ -3337,7 +2688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
@@ -3682,7 +3033,7 @@
         <f>I34/$W$32</f>
         <v>0</v>
       </c>
-      <c r="V34" s="50">
+      <c r="V34" s="48">
         <f>J34/$W$32</f>
         <v>0</v>
       </c>
@@ -3738,7 +3089,7 @@
         <f t="shared" ref="U35:W58" si="2">I35/$W$32</f>
         <v>0</v>
       </c>
-      <c r="V35" s="50">
+      <c r="V35" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3794,7 +3145,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V36" s="50">
+      <c r="V36" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3850,7 +3201,7 @@
         <f t="shared" ref="U37:U41" si="6">I37/$W$32</f>
         <v>0</v>
       </c>
-      <c r="V37" s="50">
+      <c r="V37" s="48">
         <f t="shared" ref="V37:V41" si="7">J37/$W$32</f>
         <v>0</v>
       </c>
@@ -3906,7 +3257,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V38" s="50">
+      <c r="V38" s="48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3962,7 +3313,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V39" s="50">
+      <c r="V39" s="48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4018,7 +3369,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V40" s="50">
+      <c r="V40" s="48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4074,7 +3425,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V41" s="50">
+      <c r="V41" s="48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4130,7 +3481,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V42" s="50">
+      <c r="V42" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4186,7 +3537,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V43" s="50">
+      <c r="V43" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4242,7 +3593,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V44" s="50">
+      <c r="V44" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4298,7 +3649,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V45" s="50">
+      <c r="V45" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4354,7 +3705,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V46" s="50">
+      <c r="V46" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4410,7 +3761,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V47" s="50">
+      <c r="V47" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4466,7 +3817,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V48" s="50">
+      <c r="V48" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4522,7 +3873,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V49" s="50">
+      <c r="V49" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4578,7 +3929,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V50" s="50">
+      <c r="V50" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4634,7 +3985,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V51" s="50">
+      <c r="V51" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4690,7 +4041,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V52" s="50">
+      <c r="V52" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4746,7 +4097,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V53" s="50">
+      <c r="V53" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4802,7 +4153,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V54" s="50">
+      <c r="V54" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4858,7 +4209,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V55" s="50">
+      <c r="V55" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4914,7 +4265,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V56" s="50">
+      <c r="V56" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4970,7 +4321,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V57" s="50">
+      <c r="V57" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5026,7 +4377,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V58" s="50">
+      <c r="V58" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5039,23 +4390,23 @@
       </c>
     </row>
     <row r="60" spans="1:25" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
     </row>
     <row r="61" spans="1:25" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="36" t="s">
@@ -5956,23 +5307,23 @@
       <c r="Y86" s="5"/>
     </row>
     <row r="88" spans="1:25" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="48"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
     </row>
     <row r="89" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
@@ -6647,23 +5998,23 @@
       </c>
     </row>
     <row r="116" spans="1:15" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="48"/>
-      <c r="I116" s="48"/>
-      <c r="J116" s="48"/>
-      <c r="K116" s="48"/>
-      <c r="L116" s="48"/>
-      <c r="M116" s="48"/>
-      <c r="N116" s="48"/>
-      <c r="O116" s="48"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="49"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="49"/>
     </row>
     <row r="117" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">

--- a/src/Presentation/CTM.Win/ReportTemplate/TradeTypeProfit.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/TradeTypeProfit.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693" activeTab="1"/>
+    <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="97" r:id="rId1"/>
+    <sheet name="Summary" sheetId="98" r:id="rId1"/>
     <sheet name="Subject" sheetId="96" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$P$80</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -121,7 +124,7 @@
     <numFmt numFmtId="179" formatCode="0.0%"/>
     <numFmt numFmtId="180" formatCode="yy\/mm\/dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +216,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -276,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,6 +445,13 @@
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,9 +647,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -908,8 +924,8 @@
         </c:dLbls>
         <c:gapWidth val="277"/>
         <c:overlap val="100"/>
-        <c:axId val="-1194157376"/>
-        <c:axId val="-1194155744"/>
+        <c:axId val="1552552816"/>
+        <c:axId val="1552550096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -981,9 +997,7 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1548,9 +1562,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1678,8 +1690,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1194157376"/>
-        <c:axId val="-1194155744"/>
+        <c:axId val="1552552816"/>
+        <c:axId val="1552550096"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1893,9 +1905,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2121,9 +2131,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2427,11 +2435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1194161184"/>
-        <c:axId val="-1194155200"/>
+        <c:axId val="1552539760"/>
+        <c:axId val="1552547376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1194157376"/>
+        <c:axId val="1552552816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2459,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1194155744"/>
+        <c:crossAx val="1552550096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2459,7 +2467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1194155744"/>
+        <c:axId val="1552550096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,12 +2539,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1194157376"/>
+        <c:crossAx val="1552552816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1194155200"/>
+        <c:axId val="1552547376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,12 +2564,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1194161184"/>
+        <c:crossAx val="1552539760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1194161184"/>
+        <c:axId val="1552539760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1194155200"/>
+        <c:crossAx val="1552547376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3033,19 +3041,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="61" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="59"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.53" right="0.49" top="0.52" bottom="0.48" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3056,7 +3069,7 @@
   </sheetPr>
   <dimension ref="A2:AA261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
@@ -5621,23 +5634,23 @@
       </c>
     </row>
     <row r="68" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+      <c r="O68" s="63"/>
     </row>
     <row r="69" spans="1:25" ht="24" x14ac:dyDescent="0.15">
       <c r="A69" s="19" t="s">
@@ -6568,23 +6581,23 @@
       <c r="Y96" s="5"/>
     </row>
     <row r="97" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="59" t="s">
+      <c r="A97" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="60"/>
-      <c r="H97" s="60"/>
-      <c r="I97" s="60"/>
-      <c r="J97" s="60"/>
-      <c r="K97" s="60"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="60"/>
-      <c r="N97" s="60"/>
-      <c r="O97" s="60"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="63"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="63"/>
+      <c r="L97" s="63"/>
+      <c r="M97" s="63"/>
+      <c r="N97" s="63"/>
+      <c r="O97" s="63"/>
     </row>
     <row r="98" spans="1:25" ht="24" x14ac:dyDescent="0.15">
       <c r="A98" s="19" t="s">
@@ -7515,23 +7528,23 @@
       <c r="Y125" s="5"/>
     </row>
     <row r="126" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="59" t="s">
+      <c r="A126" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B126" s="60"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="60"/>
-      <c r="G126" s="60"/>
-      <c r="H126" s="60"/>
-      <c r="I126" s="60"/>
-      <c r="J126" s="60"/>
-      <c r="K126" s="60"/>
-      <c r="L126" s="60"/>
-      <c r="M126" s="60"/>
-      <c r="N126" s="60"/>
-      <c r="O126" s="60"/>
+      <c r="B126" s="63"/>
+      <c r="C126" s="63"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
+      <c r="L126" s="63"/>
+      <c r="M126" s="63"/>
+      <c r="N126" s="63"/>
+      <c r="O126" s="63"/>
     </row>
     <row r="127" spans="1:25" ht="24" x14ac:dyDescent="0.15">
       <c r="A127" s="19" t="s">

--- a/src/Presentation/CTM.Win/ReportTemplate/TradeTypeProfit.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/TradeTypeProfit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693"/>
+    <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="98" r:id="rId1"/>
@@ -647,7 +647,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -924,8 +926,8 @@
         </c:dLbls>
         <c:gapWidth val="277"/>
         <c:overlap val="100"/>
-        <c:axId val="1552552816"/>
-        <c:axId val="1552550096"/>
+        <c:axId val="1517679056"/>
+        <c:axId val="1517679600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -997,7 +999,9 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1562,7 +1566,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1690,8 +1696,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1552552816"/>
-        <c:axId val="1552550096"/>
+        <c:axId val="1517679056"/>
+        <c:axId val="1517679600"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1905,7 +1911,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2131,7 +2139,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2435,11 +2445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1552539760"/>
-        <c:axId val="1552547376"/>
+        <c:axId val="1517683408"/>
+        <c:axId val="1517672528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1552552816"/>
+        <c:axId val="1517679056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1552550096"/>
+        <c:crossAx val="1517679600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2467,7 +2477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1552550096"/>
+        <c:axId val="1517679600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,12 +2549,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1552552816"/>
+        <c:crossAx val="1517679056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1552547376"/>
+        <c:axId val="1517672528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,12 +2574,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1552539760"/>
+        <c:crossAx val="1517683408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1552539760"/>
+        <c:axId val="1517683408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1552547376"/>
+        <c:crossAx val="1517672528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3043,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3069,8 +3079,8 @@
   </sheetPr>
   <dimension ref="A2:AA261"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -3092,13 +3102,7 @@
     <col min="15" max="15" width="9" style="5"/>
     <col min="16" max="16" width="3.75" style="5" customWidth="1"/>
     <col min="17" max="17" width="7.25" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9.375" style="9" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="6.75" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="8.375" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="6.75" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="10.375" style="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="24" width="9.375" style="9" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="5.875" style="9" customWidth="1" outlineLevel="1"/>
     <col min="26" max="16384" width="9" style="5"/>
   </cols>
